--- a/resource_api/raporlar/dosyalar/Seleksiyon Üretim Etiket.xlsx
+++ b/resource_api/raporlar/dosyalar/Seleksiyon Üretim Etiket.xlsx
@@ -471,11 +471,11 @@
     </row>
     <row r="2" ht="26.4" customHeight="1">
       <c r="B2" s="7" t="n">
-        <v>525908</v>
+        <v>525931</v>
       </c>
       <c r="C2" s="7" t="inlineStr">
         <is>
-          <t>Stok</t>
+          <t>22AURA01-3</t>
         </is>
       </c>
       <c r="D2" s="1" t="n"/>
@@ -488,7 +488,7 @@
       </c>
       <c r="C3" s="7" t="inlineStr">
         <is>
-          <t>Bluestone</t>
+          <t>Sink&amp;Faucet</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>Sandblasted&amp;Brushed</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="D4" s="3" t="n"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="C5" s="8" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>VARxVARxVAR</t>
         </is>
       </c>
       <c r="D5" s="3" t="n"/>
@@ -526,7 +526,7 @@
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>22-12-2022</t>
+          <t>25-12-2022</t>
         </is>
       </c>
       <c r="D6" s="3" t="n"/>
@@ -539,7 +539,7 @@
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>Tabii Mermer</t>
+          <t>Özgören Hırdavat</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
@@ -551,11 +551,11 @@
     </row>
     <row r="9" ht="26.4" customHeight="1">
       <c r="B9" s="7" t="n">
-        <v>525907</v>
+        <v>525930</v>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>Stok</t>
+          <t>22AURA01-3</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
@@ -568,7 +568,7 @@
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>Bluestone</t>
+          <t>Refrigerator</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -581,7 +581,7 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>Sandblasted&amp;Brushed</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="D11" s="1" t="n"/>
@@ -594,7 +594,7 @@
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>VARxVARxVAR</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C13" s="8" t="inlineStr">
         <is>
-          <t>22-12-2022</t>
+          <t>25-12-2022</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -619,7 +619,7 @@
       </c>
       <c r="C14" s="8" t="inlineStr">
         <is>
-          <t>Tabii Mermer</t>
+          <t>Özgören Hırdavat</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -631,11 +631,11 @@
     </row>
     <row r="16" ht="26.4" customHeight="1">
       <c r="B16" s="7" t="n">
-        <v>525906</v>
+        <v>525929</v>
       </c>
       <c r="C16" s="8" t="inlineStr">
         <is>
-          <t>Stok</t>
+          <t>22AURA01-3</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -648,7 +648,7 @@
       </c>
       <c r="C17" s="9" t="inlineStr">
         <is>
-          <t>Bluestone</t>
+          <t>Microvawe Oven</t>
         </is>
       </c>
       <c r="D17" s="4" t="n"/>
@@ -661,7 +661,7 @@
       </c>
       <c r="C18" s="8" t="inlineStr">
         <is>
-          <t>Sandblasted&amp;Brushed</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -674,7 +674,7 @@
       </c>
       <c r="C19" s="8" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>VARxVARxVAR</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -687,7 +687,7 @@
       </c>
       <c r="C20" s="7" t="inlineStr">
         <is>
-          <t>22-12-2022</t>
+          <t>25-12-2022</t>
         </is>
       </c>
       <c r="D20" s="1" t="n"/>
@@ -700,7 +700,7 @@
       </c>
       <c r="C21" s="7" t="inlineStr">
         <is>
-          <t>Tabii Mermer</t>
+          <t>Özgören Hırdavat</t>
         </is>
       </c>
     </row>
@@ -711,11 +711,11 @@
     </row>
     <row r="23" ht="26.4" customHeight="1">
       <c r="B23" s="7" t="n">
-        <v>525905</v>
+        <v>525928</v>
       </c>
       <c r="C23" s="8" t="inlineStr">
         <is>
-          <t>Stok</t>
+          <t>22AURA01-3</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="C24" s="8" t="inlineStr">
         <is>
-          <t>Bluestone</t>
+          <t>Oven</t>
         </is>
       </c>
       <c r="D24" s="3" t="n"/>
@@ -741,7 +741,7 @@
       </c>
       <c r="C25" s="8" t="inlineStr">
         <is>
-          <t>Sandblasted&amp;Brushed</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
@@ -754,7 +754,7 @@
       </c>
       <c r="C26" s="9" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>VARxVARxVAR</t>
         </is>
       </c>
       <c r="D26" s="4" t="n"/>
@@ -767,7 +767,7 @@
       </c>
       <c r="C27" s="8" t="inlineStr">
         <is>
-          <t>22-12-2022</t>
+          <t>25-12-2022</t>
         </is>
       </c>
       <c r="D27" s="3" t="n"/>
@@ -780,7 +780,7 @@
       </c>
       <c r="C28" s="8" t="inlineStr">
         <is>
-          <t>Tabii Mermer</t>
+          <t>Özgören Hırdavat</t>
         </is>
       </c>
       <c r="D28" s="3" t="n"/>
@@ -792,11 +792,11 @@
     </row>
     <row r="30">
       <c r="B30" s="7" t="n">
-        <v>525904</v>
+        <v>525927</v>
       </c>
       <c r="C30" s="7" t="inlineStr">
         <is>
-          <t>Stok</t>
+          <t>22AURA01-3</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="C31" s="8" t="inlineStr">
         <is>
-          <t>Bluestone</t>
+          <t>Cooker</t>
         </is>
       </c>
       <c r="D31" s="3" t="n"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="C32" s="8" t="inlineStr">
         <is>
-          <t>Sandblasted&amp;Brushed</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="D32" s="3" t="n"/>
@@ -834,7 +834,7 @@
       </c>
       <c r="C33" s="8" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>VARxVARxVAR</t>
         </is>
       </c>
       <c r="D33" s="3" t="n"/>
@@ -847,7 +847,7 @@
       </c>
       <c r="C34" s="8" t="inlineStr">
         <is>
-          <t>22-12-2022</t>
+          <t>25-12-2022</t>
         </is>
       </c>
       <c r="D34" s="3" t="n"/>
@@ -860,7 +860,7 @@
       </c>
       <c r="C35" s="9" t="inlineStr">
         <is>
-          <t>Tabii Mermer</t>
+          <t>Özgören Hırdavat</t>
         </is>
       </c>
       <c r="D35" s="4" t="n"/>
@@ -872,11 +872,11 @@
     </row>
     <row r="37" ht="26.4" customHeight="1">
       <c r="B37" s="7" t="n">
-        <v>525903</v>
+        <v>525926</v>
       </c>
       <c r="C37" s="8" t="inlineStr">
         <is>
-          <t>Stok</t>
+          <t>22AURA01-3</t>
         </is>
       </c>
       <c r="D37" s="3" t="n"/>
@@ -889,7 +889,7 @@
       </c>
       <c r="C38" s="7" t="inlineStr">
         <is>
-          <t>Bluestone</t>
+          <t>Fan</t>
         </is>
       </c>
       <c r="D38" s="1" t="n"/>
@@ -902,7 +902,7 @@
       </c>
       <c r="C39" s="7" t="inlineStr">
         <is>
-          <t>Sandblasted&amp;Brushed</t>
+          <t>Various</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="C40" s="8" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>VARxVARxVAR</t>
         </is>
       </c>
       <c r="D40" s="3" t="n"/>
@@ -927,7 +927,7 @@
       </c>
       <c r="C41" s="8" t="inlineStr">
         <is>
-          <t>22-12-2022</t>
+          <t>25-12-2022</t>
         </is>
       </c>
       <c r="D41" s="3" t="n"/>
@@ -940,7 +940,7 @@
       </c>
       <c r="C42" s="8" t="inlineStr">
         <is>
-          <t>Tabii Mermer</t>
+          <t>Özgören Hırdavat</t>
         </is>
       </c>
       <c r="D42" s="3" t="n"/>
@@ -951,78 +951,28 @@
       <c r="D43" s="3" t="n"/>
     </row>
     <row r="44" ht="26.4" customHeight="1">
-      <c r="B44" s="7" t="n">
-        <v>525902</v>
-      </c>
-      <c r="C44" s="9" t="inlineStr">
-        <is>
-          <t>Stok</t>
-        </is>
-      </c>
+      <c r="B44" s="1" t="n"/>
+      <c r="C44" s="4" t="n"/>
       <c r="D44" s="4" t="n"/>
     </row>
     <row r="45" ht="26.4" customHeight="1">
-      <c r="B45" s="7" t="inlineStr">
-        <is>
-          <t>Ürün Adı</t>
-        </is>
-      </c>
-      <c r="C45" s="8" t="inlineStr">
-        <is>
-          <t>Bluestone</t>
-        </is>
-      </c>
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="3" t="n"/>
       <c r="D45" s="3" t="n"/>
     </row>
     <row r="46" ht="26.4" customHeight="1">
-      <c r="B46" s="7" t="inlineStr">
-        <is>
-          <t>İşlem</t>
-        </is>
-      </c>
-      <c r="C46" s="8" t="inlineStr">
-        <is>
-          <t>Sandblasted&amp;Brushed</t>
-        </is>
-      </c>
+      <c r="B46" s="1" t="n"/>
+      <c r="C46" s="3" t="n"/>
       <c r="D46" s="3" t="n"/>
     </row>
     <row r="47" ht="26.4" customHeight="1">
-      <c r="B47" s="7" t="inlineStr">
-        <is>
-          <t>Ebat</t>
-        </is>
-      </c>
-      <c r="C47" s="7" t="inlineStr">
-        <is>
-          <t>ANTxPATx1,2</t>
-        </is>
-      </c>
+      <c r="B47" s="1" t="n"/>
+      <c r="C47" s="1" t="n"/>
       <c r="D47" s="1" t="n"/>
     </row>
-    <row r="48">
-      <c r="B48" s="7" t="inlineStr">
-        <is>
-          <t>Üretim Tarihi</t>
-        </is>
-      </c>
-      <c r="C48" s="7" t="inlineStr">
-        <is>
-          <t>22-12-2022</t>
-        </is>
-      </c>
-    </row>
     <row r="49" ht="26.4" customHeight="1">
-      <c r="B49" s="7" t="inlineStr">
-        <is>
-          <t>Tedarikçi</t>
-        </is>
-      </c>
-      <c r="C49" s="8" t="inlineStr">
-        <is>
-          <t>Tabii Mermer</t>
-        </is>
-      </c>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="3" t="n"/>
       <c r="D49" s="3" t="n"/>
     </row>
     <row r="50" ht="26.4" customHeight="1">
@@ -1031,155 +981,63 @@
       <c r="D50" s="3" t="n"/>
     </row>
     <row r="51" ht="26.4" customHeight="1">
-      <c r="B51" s="7" t="n">
-        <v>525901</v>
-      </c>
-      <c r="C51" s="8" t="inlineStr">
-        <is>
-          <t>Stok</t>
-        </is>
-      </c>
+      <c r="B51" s="1" t="n"/>
+      <c r="C51" s="3" t="n"/>
       <c r="D51" s="3" t="n"/>
     </row>
     <row r="52" ht="26.4" customHeight="1">
-      <c r="B52" s="7" t="inlineStr">
-        <is>
-          <t>Ürün Adı</t>
-        </is>
-      </c>
-      <c r="C52" s="8" t="inlineStr">
-        <is>
-          <t>Bluestone</t>
-        </is>
-      </c>
+      <c r="B52" s="1" t="n"/>
+      <c r="C52" s="3" t="n"/>
       <c r="D52" s="3" t="n"/>
     </row>
     <row r="53" ht="26.4" customHeight="1">
-      <c r="B53" s="7" t="inlineStr">
-        <is>
-          <t>İşlem</t>
-        </is>
-      </c>
-      <c r="C53" s="9" t="inlineStr">
-        <is>
-          <t>Sandblasted&amp;Brushed</t>
-        </is>
-      </c>
+      <c r="B53" s="1" t="n"/>
+      <c r="C53" s="4" t="n"/>
       <c r="D53" s="4" t="n"/>
     </row>
     <row r="54" ht="26.4" customHeight="1">
-      <c r="B54" s="7" t="inlineStr">
-        <is>
-          <t>Ebat</t>
-        </is>
-      </c>
-      <c r="C54" s="8" t="inlineStr">
-        <is>
-          <t>ANTxPATx1,2</t>
-        </is>
-      </c>
+      <c r="B54" s="1" t="n"/>
+      <c r="C54" s="3" t="n"/>
       <c r="D54" s="3" t="n"/>
     </row>
     <row r="55" ht="26.4" customHeight="1">
-      <c r="B55" s="7" t="inlineStr">
-        <is>
-          <t>Üretim Tarihi</t>
-        </is>
-      </c>
-      <c r="C55" s="8" t="inlineStr">
-        <is>
-          <t>22-12-2022</t>
-        </is>
-      </c>
+      <c r="B55" s="1" t="n"/>
+      <c r="C55" s="3" t="n"/>
       <c r="D55" s="3" t="n"/>
     </row>
     <row r="56" ht="26.4" customHeight="1">
-      <c r="B56" s="7" t="inlineStr">
-        <is>
-          <t>Tedarikçi</t>
-        </is>
-      </c>
-      <c r="C56" s="7" t="inlineStr">
-        <is>
-          <t>Tabii Mermer</t>
-        </is>
-      </c>
+      <c r="B56" s="1" t="n"/>
+      <c r="C56" s="1" t="n"/>
       <c r="D56" s="1" t="n"/>
     </row>
     <row r="58" ht="26.4" customHeight="1">
-      <c r="B58" s="7" t="n">
-        <v>525900</v>
-      </c>
-      <c r="C58" s="8" t="inlineStr">
-        <is>
-          <t>Stok</t>
-        </is>
-      </c>
+      <c r="B58" s="1" t="n"/>
+      <c r="C58" s="3" t="n"/>
       <c r="D58" s="3" t="n"/>
     </row>
     <row r="59" ht="26.4" customHeight="1">
-      <c r="B59" s="7" t="inlineStr">
-        <is>
-          <t>Ürün Adı</t>
-        </is>
-      </c>
-      <c r="C59" s="8" t="inlineStr">
-        <is>
-          <t>Bluestone</t>
-        </is>
-      </c>
+      <c r="B59" s="1" t="n"/>
+      <c r="C59" s="3" t="n"/>
       <c r="D59" s="3" t="n"/>
     </row>
     <row r="60" ht="26.4" customHeight="1">
-      <c r="B60" s="7" t="inlineStr">
-        <is>
-          <t>İşlem</t>
-        </is>
-      </c>
-      <c r="C60" s="8" t="inlineStr">
-        <is>
-          <t>Sandblasted&amp;Brushed</t>
-        </is>
-      </c>
+      <c r="B60" s="1" t="n"/>
+      <c r="C60" s="3" t="n"/>
       <c r="D60" s="3" t="n"/>
     </row>
     <row r="61" ht="26.4" customHeight="1">
-      <c r="B61" s="7" t="inlineStr">
-        <is>
-          <t>Ebat</t>
-        </is>
-      </c>
-      <c r="C61" s="8" t="inlineStr">
-        <is>
-          <t>ANTxPATx1,2</t>
-        </is>
-      </c>
+      <c r="B61" s="1" t="n"/>
+      <c r="C61" s="3" t="n"/>
       <c r="D61" s="3" t="n"/>
     </row>
     <row r="62" ht="26.4" customHeight="1">
-      <c r="B62" s="7" t="inlineStr">
-        <is>
-          <t>Üretim Tarihi</t>
-        </is>
-      </c>
-      <c r="C62" s="9" t="inlineStr">
-        <is>
-          <t>22-12-2022</t>
-        </is>
-      </c>
+      <c r="B62" s="1" t="n"/>
+      <c r="C62" s="4" t="n"/>
       <c r="D62" s="4" t="n"/>
     </row>
     <row r="63" ht="26.4" customHeight="1">
-      <c r="B63" s="7" t="inlineStr">
-        <is>
-          <t>Tedarikçi</t>
-        </is>
-      </c>
-      <c r="C63" s="8" t="inlineStr">
-        <is>
-          <t>Tabii Mermer</t>
-        </is>
-      </c>
+      <c r="B63" s="1" t="n"/>
+      <c r="C63" s="3" t="n"/>
       <c r="D63" s="3" t="n"/>
     </row>
     <row r="64" ht="26.4" customHeight="1">
@@ -1188,78 +1046,28 @@
       <c r="D64" s="3" t="n"/>
     </row>
     <row r="65" ht="26.4" customHeight="1">
-      <c r="B65" s="7" t="n">
-        <v>525899</v>
-      </c>
-      <c r="C65" s="7" t="inlineStr">
-        <is>
-          <t>Stok</t>
-        </is>
-      </c>
+      <c r="B65" s="1" t="n"/>
+      <c r="C65" s="1" t="n"/>
       <c r="D65" s="1" t="n"/>
     </row>
-    <row r="66">
-      <c r="B66" s="7" t="inlineStr">
-        <is>
-          <t>Ürün Adı</t>
-        </is>
-      </c>
-      <c r="C66" s="7" t="inlineStr">
-        <is>
-          <t>Bluestone</t>
-        </is>
-      </c>
-    </row>
     <row r="67" ht="26.4" customHeight="1">
-      <c r="B67" s="7" t="inlineStr">
-        <is>
-          <t>İşlem</t>
-        </is>
-      </c>
-      <c r="C67" s="8" t="inlineStr">
-        <is>
-          <t>Sandblasted&amp;Brushed</t>
-        </is>
-      </c>
+      <c r="B67" s="1" t="n"/>
+      <c r="C67" s="3" t="n"/>
       <c r="D67" s="3" t="n"/>
     </row>
     <row r="68" ht="26.4" customHeight="1">
-      <c r="B68" s="7" t="inlineStr">
-        <is>
-          <t>Ebat</t>
-        </is>
-      </c>
-      <c r="C68" s="8" t="inlineStr">
-        <is>
-          <t>ANTxPATx1,2</t>
-        </is>
-      </c>
+      <c r="B68" s="1" t="n"/>
+      <c r="C68" s="3" t="n"/>
       <c r="D68" s="3" t="n"/>
     </row>
     <row r="69" ht="26.4" customHeight="1">
-      <c r="B69" s="7" t="inlineStr">
-        <is>
-          <t>Üretim Tarihi</t>
-        </is>
-      </c>
-      <c r="C69" s="8" t="inlineStr">
-        <is>
-          <t>22-12-2022</t>
-        </is>
-      </c>
+      <c r="B69" s="1" t="n"/>
+      <c r="C69" s="3" t="n"/>
       <c r="D69" s="3" t="n"/>
     </row>
     <row r="70" ht="26.4" customHeight="1">
-      <c r="B70" s="7" t="inlineStr">
-        <is>
-          <t>Tedarikçi</t>
-        </is>
-      </c>
-      <c r="C70" s="8" t="inlineStr">
-        <is>
-          <t>Tabii Mermer</t>
-        </is>
-      </c>
+      <c r="B70" s="1" t="n"/>
+      <c r="C70" s="3" t="n"/>
       <c r="D70" s="3" t="n"/>
     </row>
     <row r="71" ht="26.4" customHeight="1">
@@ -1268,78 +1076,28 @@
       <c r="D71" s="4" t="n"/>
     </row>
     <row r="72" ht="26.4" customHeight="1">
-      <c r="B72" s="7" t="n">
-        <v>525898</v>
-      </c>
-      <c r="C72" s="8" t="inlineStr">
-        <is>
-          <t>Stok</t>
-        </is>
-      </c>
+      <c r="B72" s="1" t="n"/>
+      <c r="C72" s="3" t="n"/>
       <c r="D72" s="3" t="n"/>
     </row>
     <row r="73" ht="26.4" customHeight="1">
-      <c r="B73" s="7" t="inlineStr">
-        <is>
-          <t>Ürün Adı</t>
-        </is>
-      </c>
-      <c r="C73" s="8" t="inlineStr">
-        <is>
-          <t>Bluestone</t>
-        </is>
-      </c>
+      <c r="B73" s="1" t="n"/>
+      <c r="C73" s="3" t="n"/>
       <c r="D73" s="3" t="n"/>
     </row>
     <row r="74" ht="26.4" customHeight="1">
-      <c r="B74" s="7" t="inlineStr">
-        <is>
-          <t>İşlem</t>
-        </is>
-      </c>
-      <c r="C74" s="7" t="inlineStr">
-        <is>
-          <t>Sandblasted&amp;Brushed</t>
-        </is>
-      </c>
+      <c r="B74" s="1" t="n"/>
+      <c r="C74" s="1" t="n"/>
       <c r="D74" s="1" t="n"/>
     </row>
-    <row r="75">
-      <c r="B75" s="7" t="inlineStr">
-        <is>
-          <t>Ebat</t>
-        </is>
-      </c>
-      <c r="C75" s="7" t="inlineStr">
-        <is>
-          <t>ANTxPATx1,2</t>
-        </is>
-      </c>
-    </row>
     <row r="76" ht="26.4" customHeight="1">
-      <c r="B76" s="7" t="inlineStr">
-        <is>
-          <t>Üretim Tarihi</t>
-        </is>
-      </c>
-      <c r="C76" s="8" t="inlineStr">
-        <is>
-          <t>22-12-2022</t>
-        </is>
-      </c>
+      <c r="B76" s="1" t="n"/>
+      <c r="C76" s="3" t="n"/>
       <c r="D76" s="3" t="n"/>
     </row>
     <row r="77" ht="26.4" customHeight="1">
-      <c r="B77" s="7" t="inlineStr">
-        <is>
-          <t>Tedarikçi</t>
-        </is>
-      </c>
-      <c r="C77" s="8" t="inlineStr">
-        <is>
-          <t>Tabii Mermer</t>
-        </is>
-      </c>
+      <c r="B77" s="1" t="n"/>
+      <c r="C77" s="3" t="n"/>
       <c r="D77" s="3" t="n"/>
     </row>
     <row r="78" ht="26.4" customHeight="1">
@@ -1348,79 +1106,29 @@
       <c r="D78" s="3" t="n"/>
     </row>
     <row r="79" ht="26.4" customHeight="1">
-      <c r="B79" s="7" t="n">
-        <v>525897</v>
-      </c>
-      <c r="C79" s="8" t="inlineStr">
-        <is>
-          <t>Stok</t>
-        </is>
-      </c>
+      <c r="B79" s="1" t="n"/>
+      <c r="C79" s="3" t="n"/>
       <c r="D79" s="3" t="n"/>
     </row>
     <row r="80" ht="26.4" customHeight="1">
-      <c r="B80" s="7" t="inlineStr">
-        <is>
-          <t>Ürün Adı</t>
-        </is>
-      </c>
-      <c r="C80" s="9" t="inlineStr">
-        <is>
-          <t>Bluestone</t>
-        </is>
-      </c>
+      <c r="B80" s="1" t="n"/>
+      <c r="C80" s="4" t="n"/>
       <c r="D80" s="4" t="n"/>
     </row>
     <row r="81" ht="26.4" customHeight="1">
-      <c r="B81" s="7" t="inlineStr">
-        <is>
-          <t>İşlem</t>
-        </is>
-      </c>
-      <c r="C81" s="8" t="inlineStr">
-        <is>
-          <t>Sandblasted&amp;Brushed</t>
-        </is>
-      </c>
+      <c r="B81" s="1" t="n"/>
+      <c r="C81" s="3" t="n"/>
       <c r="D81" s="3" t="n"/>
     </row>
     <row r="82" ht="26.4" customHeight="1">
-      <c r="B82" s="7" t="inlineStr">
-        <is>
-          <t>Ebat</t>
-        </is>
-      </c>
-      <c r="C82" s="8" t="inlineStr">
-        <is>
-          <t>ANTxPATx1,2</t>
-        </is>
-      </c>
+      <c r="B82" s="1" t="n"/>
+      <c r="C82" s="3" t="n"/>
       <c r="D82" s="3" t="n"/>
     </row>
     <row r="83" ht="26.4" customHeight="1">
-      <c r="B83" s="7" t="inlineStr">
-        <is>
-          <t>Üretim Tarihi</t>
-        </is>
-      </c>
-      <c r="C83" s="7" t="inlineStr">
-        <is>
-          <t>22-12-2022</t>
-        </is>
-      </c>
+      <c r="B83" s="1" t="n"/>
+      <c r="C83" s="1" t="n"/>
       <c r="D83" s="1" t="n"/>
-    </row>
-    <row r="84">
-      <c r="B84" s="7" t="inlineStr">
-        <is>
-          <t>Tedarikçi</t>
-        </is>
-      </c>
-      <c r="C84" s="7" t="inlineStr">
-        <is>
-          <t>Tabii Mermer</t>
-        </is>
-      </c>
     </row>
     <row r="85" ht="26.4" customHeight="1">
       <c r="B85" s="1" t="n"/>
@@ -1428,79 +1136,33 @@
       <c r="D85" s="3" t="n"/>
     </row>
     <row r="86" ht="26.4" customHeight="1">
-      <c r="B86" s="7" t="n">
-        <v>525896</v>
-      </c>
-      <c r="C86" s="8" t="inlineStr">
-        <is>
-          <t>Stok</t>
-        </is>
-      </c>
+      <c r="B86" s="1" t="n"/>
+      <c r="C86" s="3" t="n"/>
       <c r="D86" s="3" t="n"/>
     </row>
     <row r="87" ht="26.4" customHeight="1">
-      <c r="B87" s="7" t="inlineStr">
-        <is>
-          <t>Ürün Adı</t>
-        </is>
-      </c>
-      <c r="C87" s="8" t="inlineStr">
-        <is>
-          <t>Bluestone</t>
-        </is>
-      </c>
+      <c r="B87" s="1" t="n"/>
+      <c r="C87" s="3" t="n"/>
       <c r="D87" s="3" t="n"/>
     </row>
     <row r="88" ht="26.4" customHeight="1">
-      <c r="B88" s="7" t="inlineStr">
-        <is>
-          <t>İşlem</t>
-        </is>
-      </c>
-      <c r="C88" s="8" t="inlineStr">
-        <is>
-          <t>Sandblasted&amp;Brushed</t>
-        </is>
-      </c>
+      <c r="B88" s="1" t="n"/>
+      <c r="C88" s="3" t="n"/>
       <c r="D88" s="3" t="n"/>
     </row>
     <row r="89" ht="26.4" customHeight="1">
-      <c r="B89" s="7" t="inlineStr">
-        <is>
-          <t>Ebat</t>
-        </is>
-      </c>
-      <c r="C89" s="9" t="inlineStr">
-        <is>
-          <t>ANTxPATx1,2</t>
-        </is>
-      </c>
+      <c r="B89" s="1" t="n"/>
+      <c r="C89" s="4" t="n"/>
       <c r="D89" s="4" t="n"/>
     </row>
     <row r="90" ht="26.4" customHeight="1">
-      <c r="B90" s="7" t="inlineStr">
-        <is>
-          <t>Üretim Tarihi</t>
-        </is>
-      </c>
-      <c r="C90" s="8" t="inlineStr">
-        <is>
-          <t>22-12-2022</t>
-        </is>
-      </c>
+      <c r="B90" s="1" t="n"/>
+      <c r="C90" s="3" t="n"/>
       <c r="D90" s="3" t="n"/>
     </row>
     <row r="91" ht="26.4" customHeight="1">
-      <c r="B91" s="7" t="inlineStr">
-        <is>
-          <t>Tedarikçi</t>
-        </is>
-      </c>
-      <c r="C91" s="8" t="inlineStr">
-        <is>
-          <t>Tabii Mermer</t>
-        </is>
-      </c>
+      <c r="B91" s="1" t="n"/>
+      <c r="C91" s="3" t="n"/>
       <c r="D91" s="3" t="n"/>
     </row>
     <row r="92" ht="26.4" customHeight="1">
@@ -1508,79 +1170,29 @@
       <c r="C92" s="1" t="n"/>
       <c r="D92" s="1" t="n"/>
     </row>
-    <row r="93">
-      <c r="B93" s="7" t="n">
-        <v>525895</v>
-      </c>
-      <c r="C93" s="7" t="inlineStr">
-        <is>
-          <t>Stok</t>
-        </is>
-      </c>
-    </row>
     <row r="94" ht="26.4" customHeight="1">
-      <c r="B94" s="7" t="inlineStr">
-        <is>
-          <t>Ürün Adı</t>
-        </is>
-      </c>
-      <c r="C94" s="8" t="inlineStr">
-        <is>
-          <t>Bluestone</t>
-        </is>
-      </c>
+      <c r="B94" s="1" t="n"/>
+      <c r="C94" s="3" t="n"/>
       <c r="D94" s="3" t="n"/>
     </row>
     <row r="95" ht="26.4" customHeight="1">
-      <c r="B95" s="7" t="inlineStr">
-        <is>
-          <t>İşlem</t>
-        </is>
-      </c>
-      <c r="C95" s="8" t="inlineStr">
-        <is>
-          <t>Sandblasted&amp;Brushed</t>
-        </is>
-      </c>
+      <c r="B95" s="1" t="n"/>
+      <c r="C95" s="3" t="n"/>
       <c r="D95" s="3" t="n"/>
     </row>
     <row r="96" ht="26.4" customHeight="1">
-      <c r="B96" s="7" t="inlineStr">
-        <is>
-          <t>Ebat</t>
-        </is>
-      </c>
-      <c r="C96" s="8" t="inlineStr">
-        <is>
-          <t>ANTxPATx1,2</t>
-        </is>
-      </c>
+      <c r="B96" s="1" t="n"/>
+      <c r="C96" s="3" t="n"/>
       <c r="D96" s="3" t="n"/>
     </row>
     <row r="97" ht="26.4" customHeight="1">
-      <c r="B97" s="7" t="inlineStr">
-        <is>
-          <t>Üretim Tarihi</t>
-        </is>
-      </c>
-      <c r="C97" s="8" t="inlineStr">
-        <is>
-          <t>22-12-2022</t>
-        </is>
-      </c>
+      <c r="B97" s="1" t="n"/>
+      <c r="C97" s="3" t="n"/>
       <c r="D97" s="3" t="n"/>
     </row>
     <row r="98" ht="26.4" customHeight="1">
-      <c r="B98" s="7" t="inlineStr">
-        <is>
-          <t>Tedarikçi</t>
-        </is>
-      </c>
-      <c r="C98" s="9" t="inlineStr">
-        <is>
-          <t>Tabii Mermer</t>
-        </is>
-      </c>
+      <c r="B98" s="1" t="n"/>
+      <c r="C98" s="4" t="n"/>
       <c r="D98" s="4" t="n"/>
     </row>
     <row r="99" ht="26.4" customHeight="1">
@@ -1589,78 +1201,28 @@
       <c r="D99" s="3" t="n"/>
     </row>
     <row r="100" ht="26.4" customHeight="1">
-      <c r="B100" s="7" t="n">
-        <v>525894</v>
-      </c>
-      <c r="C100" s="8" t="inlineStr">
-        <is>
-          <t>Stok</t>
-        </is>
-      </c>
+      <c r="B100" s="1" t="n"/>
+      <c r="C100" s="3" t="n"/>
       <c r="D100" s="3" t="n"/>
     </row>
     <row r="101" ht="26.4" customHeight="1">
-      <c r="B101" s="7" t="inlineStr">
-        <is>
-          <t>Ürün Adı</t>
-        </is>
-      </c>
-      <c r="C101" s="7" t="inlineStr">
-        <is>
-          <t>Bluestone</t>
-        </is>
-      </c>
+      <c r="B101" s="1" t="n"/>
+      <c r="C101" s="1" t="n"/>
       <c r="D101" s="1" t="n"/>
     </row>
-    <row r="102">
-      <c r="B102" s="7" t="inlineStr">
-        <is>
-          <t>İşlem</t>
-        </is>
-      </c>
-      <c r="C102" s="7" t="inlineStr">
-        <is>
-          <t>Sandblasted&amp;Brushed</t>
-        </is>
-      </c>
-    </row>
     <row r="103" ht="26.4" customHeight="1">
-      <c r="B103" s="7" t="inlineStr">
-        <is>
-          <t>Ebat</t>
-        </is>
-      </c>
-      <c r="C103" s="8" t="inlineStr">
-        <is>
-          <t>ANTxPATx1,2</t>
-        </is>
-      </c>
+      <c r="B103" s="1" t="n"/>
+      <c r="C103" s="3" t="n"/>
       <c r="D103" s="3" t="n"/>
     </row>
     <row r="104" ht="26.4" customHeight="1">
-      <c r="B104" s="7" t="inlineStr">
-        <is>
-          <t>Üretim Tarihi</t>
-        </is>
-      </c>
-      <c r="C104" s="8" t="inlineStr">
-        <is>
-          <t>22-12-2022</t>
-        </is>
-      </c>
+      <c r="B104" s="1" t="n"/>
+      <c r="C104" s="3" t="n"/>
       <c r="D104" s="3" t="n"/>
     </row>
     <row r="105" ht="26.4" customHeight="1">
-      <c r="B105" s="7" t="inlineStr">
-        <is>
-          <t>Tedarikçi</t>
-        </is>
-      </c>
-      <c r="C105" s="8" t="inlineStr">
-        <is>
-          <t>Tabii Mermer</t>
-        </is>
-      </c>
+      <c r="B105" s="1" t="n"/>
+      <c r="C105" s="3" t="n"/>
       <c r="D105" s="3" t="n"/>
     </row>
     <row r="106" ht="26.4" customHeight="1">
@@ -1669,78 +1231,28 @@
       <c r="D106" s="3" t="n"/>
     </row>
     <row r="107" ht="26.4" customHeight="1">
-      <c r="B107" s="7" t="n">
-        <v>525893</v>
-      </c>
-      <c r="C107" s="9" t="inlineStr">
-        <is>
-          <t>Stok</t>
-        </is>
-      </c>
+      <c r="B107" s="1" t="n"/>
+      <c r="C107" s="4" t="n"/>
       <c r="D107" s="4" t="n"/>
     </row>
     <row r="108" ht="26.4" customHeight="1">
-      <c r="B108" s="7" t="inlineStr">
-        <is>
-          <t>Ürün Adı</t>
-        </is>
-      </c>
-      <c r="C108" s="8" t="inlineStr">
-        <is>
-          <t>Bluestone</t>
-        </is>
-      </c>
+      <c r="B108" s="1" t="n"/>
+      <c r="C108" s="3" t="n"/>
       <c r="D108" s="3" t="n"/>
     </row>
     <row r="109" ht="26.4" customHeight="1">
-      <c r="B109" s="7" t="inlineStr">
-        <is>
-          <t>İşlem</t>
-        </is>
-      </c>
-      <c r="C109" s="8" t="inlineStr">
-        <is>
-          <t>Sandblasted&amp;Brushed</t>
-        </is>
-      </c>
+      <c r="B109" s="1" t="n"/>
+      <c r="C109" s="3" t="n"/>
       <c r="D109" s="3" t="n"/>
     </row>
     <row r="110" ht="26.4" customHeight="1">
-      <c r="B110" s="7" t="inlineStr">
-        <is>
-          <t>Ebat</t>
-        </is>
-      </c>
-      <c r="C110" s="7" t="inlineStr">
-        <is>
-          <t>ANTxPATx1,2</t>
-        </is>
-      </c>
+      <c r="B110" s="1" t="n"/>
+      <c r="C110" s="1" t="n"/>
       <c r="D110" s="1" t="n"/>
     </row>
-    <row r="111">
-      <c r="B111" s="7" t="inlineStr">
-        <is>
-          <t>Üretim Tarihi</t>
-        </is>
-      </c>
-      <c r="C111" s="7" t="inlineStr">
-        <is>
-          <t>22-12-2022</t>
-        </is>
-      </c>
-    </row>
     <row r="112" ht="26.4" customHeight="1">
-      <c r="B112" s="7" t="inlineStr">
-        <is>
-          <t>Tedarikçi</t>
-        </is>
-      </c>
-      <c r="C112" s="8" t="inlineStr">
-        <is>
-          <t>Tabii Mermer</t>
-        </is>
-      </c>
+      <c r="B112" s="1" t="n"/>
+      <c r="C112" s="3" t="n"/>
       <c r="D112" s="3" t="n"/>
     </row>
     <row r="113" ht="26.4" customHeight="1">
@@ -1749,155 +1261,63 @@
       <c r="D113" s="3" t="n"/>
     </row>
     <row r="114" ht="26.4" customHeight="1">
-      <c r="B114" s="7" t="n">
-        <v>525892</v>
-      </c>
-      <c r="C114" s="8" t="inlineStr">
-        <is>
-          <t>Stok</t>
-        </is>
-      </c>
+      <c r="B114" s="1" t="n"/>
+      <c r="C114" s="3" t="n"/>
       <c r="D114" s="3" t="n"/>
     </row>
     <row r="115" ht="26.4" customHeight="1">
-      <c r="B115" s="7" t="inlineStr">
-        <is>
-          <t>Ürün Adı</t>
-        </is>
-      </c>
-      <c r="C115" s="8" t="inlineStr">
-        <is>
-          <t>Bluestone</t>
-        </is>
-      </c>
+      <c r="B115" s="1" t="n"/>
+      <c r="C115" s="3" t="n"/>
       <c r="D115" s="3" t="n"/>
     </row>
     <row r="116" ht="26.4" customHeight="1">
-      <c r="B116" s="7" t="inlineStr">
-        <is>
-          <t>İşlem</t>
-        </is>
-      </c>
-      <c r="C116" s="9" t="inlineStr">
-        <is>
-          <t>Sandblasted&amp;Brushed</t>
-        </is>
-      </c>
+      <c r="B116" s="1" t="n"/>
+      <c r="C116" s="4" t="n"/>
       <c r="D116" s="4" t="n"/>
     </row>
     <row r="117" ht="26.4" customHeight="1">
-      <c r="B117" s="7" t="inlineStr">
-        <is>
-          <t>Ebat</t>
-        </is>
-      </c>
-      <c r="C117" s="8" t="inlineStr">
-        <is>
-          <t>ANTxPATx1,2</t>
-        </is>
-      </c>
+      <c r="B117" s="1" t="n"/>
+      <c r="C117" s="3" t="n"/>
       <c r="D117" s="3" t="n"/>
     </row>
     <row r="118" ht="26.4" customHeight="1">
-      <c r="B118" s="7" t="inlineStr">
-        <is>
-          <t>Üretim Tarihi</t>
-        </is>
-      </c>
-      <c r="C118" s="8" t="inlineStr">
-        <is>
-          <t>22-12-2022</t>
-        </is>
-      </c>
+      <c r="B118" s="1" t="n"/>
+      <c r="C118" s="3" t="n"/>
       <c r="D118" s="3" t="n"/>
     </row>
     <row r="119" ht="26.4" customHeight="1">
-      <c r="B119" s="7" t="inlineStr">
-        <is>
-          <t>Tedarikçi</t>
-        </is>
-      </c>
-      <c r="C119" s="7" t="inlineStr">
-        <is>
-          <t>Tabii Mermer</t>
-        </is>
-      </c>
+      <c r="B119" s="1" t="n"/>
+      <c r="C119" s="1" t="n"/>
       <c r="D119" s="1" t="n"/>
     </row>
     <row r="121" ht="26.4" customHeight="1">
-      <c r="B121" s="7" t="n">
-        <v>525891</v>
-      </c>
-      <c r="C121" s="8" t="inlineStr">
-        <is>
-          <t>Stok</t>
-        </is>
-      </c>
+      <c r="B121" s="1" t="n"/>
+      <c r="C121" s="3" t="n"/>
       <c r="D121" s="3" t="n"/>
     </row>
     <row r="122" ht="26.4" customHeight="1">
-      <c r="B122" s="7" t="inlineStr">
-        <is>
-          <t>Ürün Adı</t>
-        </is>
-      </c>
-      <c r="C122" s="8" t="inlineStr">
-        <is>
-          <t>Bluestone</t>
-        </is>
-      </c>
+      <c r="B122" s="1" t="n"/>
+      <c r="C122" s="3" t="n"/>
       <c r="D122" s="3" t="n"/>
     </row>
     <row r="123" ht="26.4" customHeight="1">
-      <c r="B123" s="7" t="inlineStr">
-        <is>
-          <t>İşlem</t>
-        </is>
-      </c>
-      <c r="C123" s="8" t="inlineStr">
-        <is>
-          <t>Sandblasted&amp;Brushed</t>
-        </is>
-      </c>
+      <c r="B123" s="1" t="n"/>
+      <c r="C123" s="3" t="n"/>
       <c r="D123" s="3" t="n"/>
     </row>
     <row r="124" ht="26.4" customHeight="1">
-      <c r="B124" s="7" t="inlineStr">
-        <is>
-          <t>Ebat</t>
-        </is>
-      </c>
-      <c r="C124" s="8" t="inlineStr">
-        <is>
-          <t>ANTxPATx1,2</t>
-        </is>
-      </c>
+      <c r="B124" s="1" t="n"/>
+      <c r="C124" s="3" t="n"/>
       <c r="D124" s="3" t="n"/>
     </row>
     <row r="125" ht="26.4" customHeight="1">
-      <c r="B125" s="7" t="inlineStr">
-        <is>
-          <t>Üretim Tarihi</t>
-        </is>
-      </c>
-      <c r="C125" s="9" t="inlineStr">
-        <is>
-          <t>22-12-2022</t>
-        </is>
-      </c>
+      <c r="B125" s="1" t="n"/>
+      <c r="C125" s="4" t="n"/>
       <c r="D125" s="4" t="n"/>
     </row>
     <row r="126" ht="26.4" customHeight="1">
-      <c r="B126" s="7" t="inlineStr">
-        <is>
-          <t>Tedarikçi</t>
-        </is>
-      </c>
-      <c r="C126" s="8" t="inlineStr">
-        <is>
-          <t>Tabii Mermer</t>
-        </is>
-      </c>
+      <c r="B126" s="1" t="n"/>
+      <c r="C126" s="3" t="n"/>
       <c r="D126" s="3" t="n"/>
     </row>
     <row r="127" ht="26.4" customHeight="1">
@@ -1906,78 +1326,28 @@
       <c r="D127" s="3" t="n"/>
     </row>
     <row r="128" ht="26.4" customHeight="1">
-      <c r="B128" s="7" t="n">
-        <v>525890</v>
-      </c>
-      <c r="C128" s="7" t="inlineStr">
-        <is>
-          <t>Stok</t>
-        </is>
-      </c>
+      <c r="B128" s="1" t="n"/>
+      <c r="C128" s="1" t="n"/>
       <c r="D128" s="1" t="n"/>
     </row>
-    <row r="129">
-      <c r="B129" s="7" t="inlineStr">
-        <is>
-          <t>Ürün Adı</t>
-        </is>
-      </c>
-      <c r="C129" s="7" t="inlineStr">
-        <is>
-          <t>Bluestone</t>
-        </is>
-      </c>
-    </row>
     <row r="130" ht="26.4" customHeight="1">
-      <c r="B130" s="7" t="inlineStr">
-        <is>
-          <t>İşlem</t>
-        </is>
-      </c>
-      <c r="C130" s="8" t="inlineStr">
-        <is>
-          <t>Sandblasted&amp;Brushed</t>
-        </is>
-      </c>
+      <c r="B130" s="1" t="n"/>
+      <c r="C130" s="3" t="n"/>
       <c r="D130" s="3" t="n"/>
     </row>
     <row r="131" ht="26.4" customHeight="1">
-      <c r="B131" s="7" t="inlineStr">
-        <is>
-          <t>Ebat</t>
-        </is>
-      </c>
-      <c r="C131" s="8" t="inlineStr">
-        <is>
-          <t>ANTxPATx1,2</t>
-        </is>
-      </c>
+      <c r="B131" s="1" t="n"/>
+      <c r="C131" s="3" t="n"/>
       <c r="D131" s="3" t="n"/>
     </row>
     <row r="132" ht="26.4" customHeight="1">
-      <c r="B132" s="7" t="inlineStr">
-        <is>
-          <t>Üretim Tarihi</t>
-        </is>
-      </c>
-      <c r="C132" s="8" t="inlineStr">
-        <is>
-          <t>22-12-2022</t>
-        </is>
-      </c>
+      <c r="B132" s="1" t="n"/>
+      <c r="C132" s="3" t="n"/>
       <c r="D132" s="3" t="n"/>
     </row>
     <row r="133" ht="26.4" customHeight="1">
-      <c r="B133" s="7" t="inlineStr">
-        <is>
-          <t>Tedarikçi</t>
-        </is>
-      </c>
-      <c r="C133" s="8" t="inlineStr">
-        <is>
-          <t>Tabii Mermer</t>
-        </is>
-      </c>
+      <c r="B133" s="1" t="n"/>
+      <c r="C133" s="3" t="n"/>
       <c r="D133" s="3" t="n"/>
     </row>
     <row r="134" ht="26.4" customHeight="1">
@@ -1986,78 +1356,28 @@
       <c r="D134" s="4" t="n"/>
     </row>
     <row r="135" ht="26.4" customHeight="1">
-      <c r="B135" s="7" t="n">
-        <v>525889</v>
-      </c>
-      <c r="C135" s="8" t="inlineStr">
-        <is>
-          <t>Stok</t>
-        </is>
-      </c>
+      <c r="B135" s="1" t="n"/>
+      <c r="C135" s="3" t="n"/>
       <c r="D135" s="3" t="n"/>
     </row>
     <row r="136" ht="26.4" customHeight="1">
-      <c r="B136" s="7" t="inlineStr">
-        <is>
-          <t>Ürün Adı</t>
-        </is>
-      </c>
-      <c r="C136" s="8" t="inlineStr">
-        <is>
-          <t>Bluestone</t>
-        </is>
-      </c>
+      <c r="B136" s="1" t="n"/>
+      <c r="C136" s="3" t="n"/>
       <c r="D136" s="3" t="n"/>
     </row>
     <row r="137" ht="26.4" customHeight="1">
-      <c r="B137" s="7" t="inlineStr">
-        <is>
-          <t>İşlem</t>
-        </is>
-      </c>
-      <c r="C137" s="7" t="inlineStr">
-        <is>
-          <t>Sandblasted&amp;Brushed</t>
-        </is>
-      </c>
+      <c r="B137" s="1" t="n"/>
+      <c r="C137" s="1" t="n"/>
       <c r="D137" s="1" t="n"/>
     </row>
-    <row r="138">
-      <c r="B138" s="7" t="inlineStr">
-        <is>
-          <t>Ebat</t>
-        </is>
-      </c>
-      <c r="C138" s="7" t="inlineStr">
-        <is>
-          <t>ANTxPATx1,2</t>
-        </is>
-      </c>
-    </row>
     <row r="139" ht="26.4" customHeight="1">
-      <c r="B139" s="7" t="inlineStr">
-        <is>
-          <t>Üretim Tarihi</t>
-        </is>
-      </c>
-      <c r="C139" s="8" t="inlineStr">
-        <is>
-          <t>22-12-2022</t>
-        </is>
-      </c>
+      <c r="B139" s="1" t="n"/>
+      <c r="C139" s="3" t="n"/>
       <c r="D139" s="3" t="n"/>
     </row>
     <row r="140" ht="26.4" customHeight="1">
-      <c r="B140" s="7" t="inlineStr">
-        <is>
-          <t>Tedarikçi</t>
-        </is>
-      </c>
-      <c r="C140" s="8" t="inlineStr">
-        <is>
-          <t>Tabii Mermer</t>
-        </is>
-      </c>
+      <c r="B140" s="1" t="n"/>
+      <c r="C140" s="3" t="n"/>
       <c r="D140" s="3" t="n"/>
     </row>
     <row r="141" ht="26.4" customHeight="1">
